--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>12.673048587976</v>
+        <v>5.573267772910445</v>
       </c>
       <c r="R2">
-        <v>114.057437291784</v>
+        <v>50.159409956194</v>
       </c>
       <c r="S2">
-        <v>0.0001190215834466892</v>
+        <v>5.344577812610492E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001190215834466892</v>
+        <v>5.344577812610492E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>379.3176934115146</v>
+        <v>357.4000262022569</v>
       </c>
       <c r="R3">
-        <v>3413.859240703632</v>
+        <v>3216.600235820312</v>
       </c>
       <c r="S3">
-        <v>0.003562441364110215</v>
+        <v>0.003427346985823149</v>
       </c>
       <c r="T3">
-        <v>0.003562441364110215</v>
+        <v>0.003427346985823149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>52.08525963595732</v>
+        <v>43.76353185688733</v>
       </c>
       <c r="R4">
-        <v>468.767336723616</v>
+        <v>393.8717867119859</v>
       </c>
       <c r="S4">
-        <v>0.0004891695974388784</v>
+        <v>0.000419677666486223</v>
       </c>
       <c r="T4">
-        <v>0.0004891695974388784</v>
+        <v>0.000419677666486223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>162.0012541713533</v>
+        <v>126.9918041941462</v>
       </c>
       <c r="R5">
-        <v>1458.01128754218</v>
+        <v>1142.926237747316</v>
       </c>
       <c r="S5">
-        <v>0.001521468623588974</v>
+        <v>0.001217809024677408</v>
       </c>
       <c r="T5">
-        <v>0.001521468623588974</v>
+        <v>0.001217809024677408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>2110.466441186671</v>
+        <v>985.0443434968099</v>
       </c>
       <c r="R6">
-        <v>18994.19797068004</v>
+        <v>8865.399091471289</v>
       </c>
       <c r="S6">
-        <v>0.01982088649762322</v>
+        <v>0.009446246541894111</v>
       </c>
       <c r="T6">
-        <v>0.01982088649762321</v>
+        <v>0.009446246541894111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>63168.48364748431</v>
+        <v>63168.48364748432</v>
       </c>
       <c r="R7">
-        <v>568516.3528273588</v>
+        <v>568516.3528273589</v>
       </c>
       <c r="S7">
-        <v>0.5932600112322803</v>
+        <v>0.6057646786676624</v>
       </c>
       <c r="T7">
-        <v>0.5932600112322802</v>
+        <v>0.6057646786676624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>8673.855527270453</v>
+        <v>7734.962909301794</v>
       </c>
       <c r="R8">
-        <v>78064.69974543407</v>
+        <v>69614.66618371614</v>
       </c>
       <c r="S8">
-        <v>0.08146232631215897</v>
+        <v>0.07417571311997277</v>
       </c>
       <c r="T8">
-        <v>0.08146232631215895</v>
+        <v>0.07417571311997276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>26978.37130390089</v>
+        <v>22445.10105900994</v>
       </c>
       <c r="R9">
-        <v>242805.341735108</v>
+        <v>202005.9095310894</v>
       </c>
       <c r="S9">
-        <v>0.2533730103780681</v>
+        <v>0.215241029158626</v>
       </c>
       <c r="T9">
-        <v>0.253373010378068</v>
+        <v>0.215241029158626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>4.173995507574666</v>
+        <v>2.235646598437778</v>
       </c>
       <c r="R10">
-        <v>37.56595956817199</v>
+        <v>20.12081938594</v>
       </c>
       <c r="S10">
-        <v>3.920095083374462E-05</v>
+        <v>2.143910483706928E-05</v>
       </c>
       <c r="T10">
-        <v>3.920095083374462E-05</v>
+        <v>2.143910483706928E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>124.9320822256951</v>
+        <v>143.3665464172356</v>
       </c>
       <c r="R11">
-        <v>1124.388740031256</v>
+        <v>1290.29891775512</v>
       </c>
       <c r="S11">
-        <v>0.001173325750830173</v>
+        <v>0.001374837338296435</v>
       </c>
       <c r="T11">
-        <v>0.001173325750830173</v>
+        <v>0.001374837338296435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>17.15480203694755</v>
+        <v>17.55519295287333</v>
       </c>
       <c r="R12">
-        <v>154.393218332528</v>
+        <v>157.99673657586</v>
       </c>
       <c r="S12">
-        <v>0.0001611129072833516</v>
+        <v>0.0001683484421977198</v>
       </c>
       <c r="T12">
-        <v>0.0001611129072833515</v>
+        <v>0.0001683484421977198</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>53.35673594546554</v>
+        <v>50.94117251212889</v>
       </c>
       <c r="R13">
-        <v>480.2106235091899</v>
+        <v>458.4705526091601</v>
       </c>
       <c r="S13">
-        <v>0.0005011109328343889</v>
+        <v>0.0004885088451698594</v>
       </c>
       <c r="T13">
-        <v>0.0005011109328343888</v>
+        <v>0.0004885088451698594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H14">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J14">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>99.11366571779065</v>
+        <v>96.04152050175901</v>
       </c>
       <c r="R14">
-        <v>892.0229914601158</v>
+        <v>864.3736845158311</v>
       </c>
       <c r="S14">
-        <v>0.0009308466982545759</v>
+        <v>0.0009210061322695485</v>
       </c>
       <c r="T14">
-        <v>0.0009308466982545759</v>
+        <v>0.0009210061322695485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H15">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J15">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>2966.576416451396</v>
+        <v>6158.907725674932</v>
       </c>
       <c r="R15">
-        <v>26699.18774806257</v>
+        <v>55430.16953107439</v>
       </c>
       <c r="S15">
-        <v>0.02786122218742642</v>
+        <v>0.05906186984331449</v>
       </c>
       <c r="T15">
-        <v>0.02786122218742642</v>
+        <v>0.05906186984331449</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H16">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J16">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>407.3495794279982</v>
+        <v>754.1565044644709</v>
       </c>
       <c r="R16">
-        <v>3666.146214851984</v>
+        <v>6787.408540180239</v>
       </c>
       <c r="S16">
-        <v>0.003825708678010084</v>
+        <v>0.007232109213535656</v>
       </c>
       <c r="T16">
-        <v>0.003825708678010084</v>
+        <v>0.007232109213535654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.18925266666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H17">
-        <v>36.567758</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J17">
-        <v>0.04451691386950307</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>1266.983081484952</v>
+        <v>2188.390449378726</v>
       </c>
       <c r="R17">
-        <v>11402.84773336457</v>
+        <v>19695.51404440853</v>
       </c>
       <c r="S17">
-        <v>0.01189913630581199</v>
+        <v>0.0209859341371111</v>
       </c>
       <c r="T17">
-        <v>0.01189913630581199</v>
+        <v>0.0209859341371111</v>
       </c>
     </row>
   </sheetData>
